--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4577.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4577.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4577</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Christopher B Sole</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>16/08/2016</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -540,7 +604,6 @@
           <t>2</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>08/09/2016</t>
@@ -548,7 +611,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -588,7 +651,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>10/09/2016</t>
@@ -596,7 +658,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -648,7 +710,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -700,7 +762,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -740,7 +802,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -748,7 +809,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -800,7 +861,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>15/03/2018</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1012,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -992,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/09/2021</t>
@@ -1000,7 +1059,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1040,7 +1099,6 @@
           <t>12</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>29/05/2022</t>
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1088,7 +1146,6 @@
           <t>13</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>31/05/2022</t>
@@ -1096,7 +1153,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4578</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1148,7 +1205,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1257,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1401,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>01/12/2022</t>
@@ -1352,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1448,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>04/12/2022</t>
@@ -1400,7 +1455,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1452,7 +1507,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1492,7 +1547,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/12/2022</t>
@@ -1500,7 +1554,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4684</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4703</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1591,7 +1645,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1613,7 +1667,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1650,7 +1704,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3920</t>
+          <t>3920</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1687,7 +1741,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3933</t>
+          <t>3933</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1724,7 +1778,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3934</t>
+          <t>3934</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1761,7 +1815,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3979</t>
+          <t>3979</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1798,7 +1852,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3980</t>
+          <t>3980</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1835,7 +1889,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4048</t>
+          <t>4048</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1872,7 +1926,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4049</t>
+          <t>4049</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1909,7 +1963,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4078</t>
+          <t>4078</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1946,7 +2000,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4155</t>
+          <t>4155</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1983,7 +2037,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4158</t>
+          <t>4158</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2020,7 +2074,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4512</t>
+          <t>4512</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2057,7 +2111,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4576</t>
+          <t>4576</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2094,7 +2148,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4578</t>
+          <t>4578</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2131,7 +2185,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4581</t>
+          <t>4581</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2168,7 +2222,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4625</t>
+          <t>4625</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2205,7 +2259,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4629</t>
+          <t>4629</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2242,7 +2296,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4632</t>
+          <t>4632</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2279,7 +2333,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4677</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2316,7 +2370,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4681</t>
+          <t>4681</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2353,7 +2407,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4680</t>
+          <t>4680</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2390,7 +2444,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4684</t>
+          <t>4684</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2427,7 +2481,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4703</t>
+          <t>4703</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2455,6 +2509,529 @@
           <t>3/72</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3934</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3979</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0.58%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4048</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4049</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4078</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4155</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.85%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4512</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.21%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4684</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.82%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4577.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4577.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2570,9 +2571,6 @@
       <c r="B2" t="n">
         <v>11</v>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2648,9 +2646,6 @@
       <c r="B5" t="n">
         <v>11</v>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -2663,15 +2658,457 @@
           <t>4049</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4078</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>10</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.97%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4155</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4158</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.85%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4512</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4576</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4578</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4581</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4629</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.53%</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4632</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>0.39%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4677</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4681</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>YES</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4680</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>7.21%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4684</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>10</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.82%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4703</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3934</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3979</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3980</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4048</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4049</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2679,27 +3116,14 @@
           <t>4078</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>10</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.97%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2709,15 +3133,14 @@
           <t>4155</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -2727,27 +3150,14 @@
           <t>4158</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.85%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2757,15 +3167,14 @@
           <t>4512</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2775,15 +3184,14 @@
           <t>4576</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2793,15 +3201,14 @@
           <t>4578</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>40.00%</t>
         </is>
       </c>
     </row>
@@ -2811,27 +3218,14 @@
           <t>4581</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.75%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2841,29 +3235,12 @@
           <t>4625</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.98%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2871,27 +3248,14 @@
           <t>4629</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>10</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.53%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2901,27 +3265,14 @@
           <t>4632</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
@@ -2931,15 +3282,14 @@
           <t>4677</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -2949,15 +3299,14 @@
           <t>4681</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>30.00%</t>
         </is>
       </c>
     </row>
@@ -2967,29 +3316,12 @@
           <t>4680</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.21%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2997,27 +3329,14 @@
           <t>4684</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>10</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.82%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3027,11 +3346,16 @@
           <t>4703</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>30.00%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/SCO/PlayerPerformance_4577.xlsx
+++ b/bin/sheets/main_db/teams/SCO/PlayerPerformance_4577.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>16/08/2016</t>
@@ -605,6 +604,7 @@
           <t>2</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>08/09/2016</t>
@@ -652,6 +652,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>10/09/2016</t>
@@ -803,6 +804,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>15/06/2017</t>
@@ -954,6 +956,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>15/03/2018</t>
@@ -1053,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>28/09/2021</t>
@@ -1100,6 +1104,7 @@
           <t>12</t>
         </is>
       </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
           <t>29/05/2022</t>
@@ -1147,6 +1152,7 @@
           <t>13</t>
         </is>
       </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
           <t>31/05/2022</t>
@@ -1402,6 +1408,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>01/12/2022</t>
@@ -1449,6 +1456,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>04/12/2022</t>
@@ -1548,6 +1556,7 @@
           <t>21</t>
         </is>
       </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>08/12/2022</t>
@@ -2514,850 +2523,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3934</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3979</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.98%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3980</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.58%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4048</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4049</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4078</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>10</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.97%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4155</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4158</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.85%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4512</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>9</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.75%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.98%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.53%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>0.39%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>7.21%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4684</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.82%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4703</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3934</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3979</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3980</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4048</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4049</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4078</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4155</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4158</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4512</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4576</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4578</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>40.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4581</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4625</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4629</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4632</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4677</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4681</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4680</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4684</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4703</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>30.00%</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>